--- a/data-raw/works.xlsx
+++ b/data-raw/works.xlsx
@@ -3,9 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="notes" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="notebooks" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="software" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="publications" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="notes" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="notebooks" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="software" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davis, Sean; Henderson, Matthew; Smith, Andrew; </t>
+  </si>
+  <si>
+    <t>Modeling Sudoku Puzzles with Python</t>
+  </si>
+  <si>
+    <t>Proceedings of the 9th Python in Science Conference</t>
+  </si>
   <si>
     <t>title</t>
   </si>
@@ -24,6 +58,9 @@
     <t>url</t>
   </si>
   <si>
+    <t>url_short</t>
+  </si>
+  <si>
     <t>started</t>
   </si>
   <si>
@@ -33,13 +70,160 @@
     <t>finished</t>
   </si>
   <si>
+    <t>On Polytopes and Lattice-Point Enumeration</t>
+  </si>
+  <si>
+    <t>Notes on Ehrhart Theory, including examples in Polymake.</t>
+  </si>
+  <si>
     <t>Completing KF-SPLS with Ryser</t>
   </si>
   <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/14_03_09_ehrhart.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henderson, Peter; Henderson, Matthew J; </t>
+  </si>
+  <si>
+    <t>Consistency Checking for Component Reuse in Open Systems</t>
+  </si>
+  <si>
+    <t>International Conference on Software Reuse</t>
+  </si>
+  <si>
     <t>An [IPython][ipython] notebook demonstrating some ideas about completing KF-SPLS using the [Ryser][ryserhome] package for partial latin square completion.</t>
   </si>
   <si>
-    <t>On Polytopes and Lattice-Point Enumeration</t>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>Collaborative Development of System Architecture-a Tool for Coping with Inconsistency.</t>
+  </si>
+  <si>
+    <t>SEKE</t>
+  </si>
+  <si>
+    <t>520-525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henderson, Matthew; Shawe-Taylor, John; Žerovnik, Janez; </t>
+  </si>
+  <si>
+    <t>Mixture of vector experts</t>
+  </si>
+  <si>
+    <t>International Conference on Algorithmic Learning Theory</t>
+  </si>
+  <si>
+    <t>386-398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henderson, Matthew James; </t>
+  </si>
+  <si>
+    <t>Embedding symmetric latin squares and edge-coloured graphs</t>
+  </si>
+  <si>
+    <t>University of Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henderson, MJ; Hilton, AJW; </t>
+  </si>
+  <si>
+    <t>Completing An Edge-Colouring of $ K_ {2m} $ with $ K_r $ and Independent Edges Precoloured</t>
+  </si>
+  <si>
+    <t>Journal of the London Mathematical Society</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
+  </si>
+  <si>
+    <t>545-566</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2LPaCjR</t>
+  </si>
+  <si>
+    <t>An Introduction to NetworkX</t>
+  </si>
+  <si>
+    <t>An IPython notebook demonstrating the use of the NetworkX package for graph and network analysis in Python</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
+  </si>
+  <si>
+    <t>On the Completability of Wing-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Completable, bound, untethered KF-SPLS of even order are characterised.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2YIm0U8</t>
+  </si>
+  <si>
+    <t>Computational and Numerical Methods</t>
+  </si>
+  <si>
+    <t>An IPython notebook demonstrating the use of Octave for numerical methods.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
+  </si>
+  <si>
+    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
+  </si>
+  <si>
+    <t>Some ideas about the intricacy of completing partial latin squares.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
+  </si>
+  <si>
+    <t>Processing GPS Data in Python</t>
+  </si>
+  <si>
+    <t>An [IPython][ipython] notebook presenting a statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2snV3sH</t>
+  </si>
+  <si>
+    <t>Modelling Sudoku Puzzles in Python</t>
+  </si>
+  <si>
+    <t>An updated version of {% cite davis7modeling –file mh2 %} as an IPython notebook.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
+  </si>
+  <si>
+    <t>On the Completability of Kite-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
+  </si>
+  <si>
+    <t>Speech Annotation in Python Using Regular Expressions</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2rIHjJ6</t>
+  </si>
+  <si>
+    <t>An IPython notebook which illustrates some basic ideas about annotating a corpus of novels using regular expressions.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6052936</t>
   </si>
   <si>
     <t>language</t>
@@ -60,67 +244,55 @@
     <t>srht</t>
   </si>
   <si>
-    <t>Some notes on Ehrhart Theory, particularly on using Polymake.</t>
-  </si>
-  <si>
     <t>docs</t>
   </si>
   <si>
     <t>todotxt</t>
   </si>
   <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
+    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+  </si>
+  <si>
+    <t>Describing the discovery of a PSSSODLS of order 9.</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>List-colouring in Python with Vizing</t>
+  </si>
+  <si>
     <t>An R package for parsing todo.txt files.</t>
   </si>
   <si>
+    <t>An IPython notebook introducing list-colouring of graphs using the [Vizing][vizinghome] package.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
+  </si>
+  <si>
     <t>https://mhenderson.github.io/todotxt/</t>
   </si>
   <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/14_03_09_ehrhart.pdf</t>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
   </si>
   <si>
     <t>https://github.com/MHenderson/todotxt</t>
   </si>
   <si>
-    <t>An Introduction to NetworkX</t>
-  </si>
-  <si>
-    <t>An IPython notebook demonstrating the use of the NetworkX package for graph and network analysis in Python</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
-  </si>
-  <si>
-    <t>On the Completability of Wing-Form Partial Latin Squares</t>
-  </si>
-  <si>
-    <t>An article about completing WF-SPLS in which the completable, bound, untethered KF-SPLS of even order are characterised.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
-  </si>
-  <si>
-    <t>Computational and Numerical Methods</t>
-  </si>
-  <si>
-    <t>An IPython notebook demonstrating the use of Octave for numerical methods.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
-  </si>
-  <si>
-    <t>Processing GPS Data in Python</t>
-  </si>
-  <si>
-    <t>An [IPython][ipython] notebook presenting a statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks</t>
-  </si>
-  <si>
-    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
+    <t>http://bit.ly/2PKgsEq</t>
+  </si>
+  <si>
+    <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+  </si>
+  <si>
+    <t>Using Essence', Savile Row and Minion to model PSSSODLS.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2skFkut</t>
   </si>
   <si>
     <t>funcgeo</t>
@@ -132,22 +304,19 @@
     <t>https://mhenderson.github.io/funcgeo/</t>
   </si>
   <si>
-    <t>A few ideas about the intricacy of completing partial latin squares.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
+    <t>A Brief Introduction to Goldberg's Conjecture</t>
   </si>
   <si>
     <t>https://github.com/mhenderson/funcgeo</t>
   </si>
   <si>
-    <t>Modelling Sudoku Puzzles in Python</t>
-  </si>
-  <si>
-    <t>An updated version of {% cite davis7modeling –file mh2 %} as an IPython notebook.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
+    <t>An introduction to Goldberg's conjecture on edge-colouring.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_11_17_goldberg.pdf</t>
+  </si>
+  <si>
+    <t>http://bit.ly/35htArm</t>
   </si>
   <si>
     <t xml:space="preserve">vizing
@@ -166,95 +335,41 @@
     <t>https://pythonhosted.org/vizing/</t>
   </si>
   <si>
-    <t>Speech Annotation in Python Using Regular Expressions</t>
-  </si>
-  <si>
-    <t>An IPython notebook which illustrates some basic ideas about annotating a corpus of novels using regular expressions.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6052936</t>
-  </si>
-  <si>
-    <t>On the Completability of Kite-Form Partial Latin Squares</t>
-  </si>
-  <si>
-    <t>An article about completing KF-SPLS. A theorem is presented which characterises completable bound, untethered KF-SPLS of even order.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
-  </si>
-  <si>
     <t>https://github.com/MHenderson/vizing</t>
   </si>
   <si>
-    <t>List-colouring in Python with Vizing</t>
-  </si>
-  <si>
-    <t>An IPython notebook introducing list-colouring of graphs using the [Vizing][vizinghome] package.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
-  </si>
-  <si>
     <t>ryser</t>
-  </si>
-  <si>
-    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
   </si>
   <si>
     <t>A Python package for latin square completion. It uses
 Vizing as a solving engine.</t>
   </si>
   <si>
-    <t>A very short article describing the discovery of a PSSSODLS of order 9.</t>
-  </si>
-  <si>
     <t>https://pythonhosted.org/ryser/</t>
   </si>
   <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
-  </si>
-  <si>
     <t>https://github.com/MHenderson/ryser</t>
   </si>
   <si>
-    <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
-  </si>
-  <si>
     <t>rminion</t>
   </si>
   <si>
-    <t>A short article which describes how to use the constraint modelling language Essence' to describe PSSSODLS and how to use the tools Savile Row and Minion to translate those descriptions into concrete models and solve them. A comparison of automated and custom models is presented.</t>
-  </si>
-  <si>
     <t>If you have a CSP in Minion format and only need to call Minion from R and get the result as text then you only need rminion.</t>
   </si>
   <si>
     <t>https://minion-r.github.io/rminion/</t>
   </si>
   <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
-  </si>
-  <si>
     <t>https://github.com/minion-r/rminion</t>
   </si>
   <si>
     <t>minionator</t>
   </si>
   <si>
-    <t>A Brief Introduction to Goldberg's Conjecture</t>
-  </si>
-  <si>
     <t>If, in addition, you also want to generate CSPs using the R programming language then you also need minionator.</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes  on Goldberg's conjecture on edge-colouring based on the first chapter of </t>
-  </si>
-  <si>
     <t>https://minion-r.github.io/minionator/</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_11_17_goldberg.pdf</t>
   </si>
   <si>
     <t>https://github.com/minion-r/minionator</t>
@@ -306,11 +421,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd"/>
-    <numFmt numFmtId="165" formatCode="m/d"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="m-d"/>
+    <numFmt numFmtId="165" formatCode="mm/dd"/>
+    <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -319,12 +435,12 @@
     <font>
       <b/>
     </font>
+    <font/>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -345,6 +461,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -368,86 +488,104 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +631,12 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="3">
+  <tableStyles count="4">
+    <tableStyle count="3" pivot="0" name="publications-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="notebooks-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -525,22 +668,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F8" displayName="Table_2" id="2">
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H7" displayName="Table_1" id="1">
+  <tableColumns count="8">
+    <tableColumn name="Authors" id="1"/>
+    <tableColumn name="Title" id="2"/>
+    <tableColumn name="Publication" id="3"/>
+    <tableColumn name="Volume" id="4"/>
+    <tableColumn name="Number" id="5"/>
+    <tableColumn name="Pages" id="6"/>
+    <tableColumn name="Year" id="7"/>
+    <tableColumn name="Publisher" id="8"/>
+  </tableColumns>
+  <tableStyleInfo name="publications-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G8" displayName="Table_3" id="3">
+  <tableColumns count="7">
     <tableColumn name="title" id="1"/>
     <tableColumn name="description" id="2"/>
     <tableColumn name="url" id="3"/>
-    <tableColumn name="started" id="4"/>
-    <tableColumn name="last_updated" id="5"/>
-    <tableColumn name="finished" id="6"/>
+    <tableColumn name="url_short" id="4"/>
+    <tableColumn name="started" id="5"/>
+    <tableColumn name="last_updated" id="6"/>
+    <tableColumn name="finished" id="7"/>
   </tableColumns>
   <tableStyleInfo name="notes-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F8" displayName="Table_1" id="1">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F8" displayName="Table_2" id="2">
   <tableColumns count="6">
     <tableColumn name="title" id="1"/>
     <tableColumn name="description" id="2"/>
@@ -553,8 +717,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L11" displayName="Table_3" id="3">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L11" displayName="Table_4" id="4">
   <tableColumns count="12">
     <tableColumn name="title" id="1"/>
     <tableColumn name="language" id="2"/>
@@ -777,144 +941,516 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="57.0"/>
-    <col customWidth="1" min="2" max="2" width="56.14"/>
-    <col customWidth="1" min="3" max="3" width="25.14"/>
+    <col customWidth="1" min="1" max="1" width="28.29"/>
+    <col customWidth="1" min="2" max="2" width="41.86"/>
+    <col customWidth="1" min="3" max="3" width="18.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2010.0</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9">
+        <v>43475.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2004.0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="46.0"/>
+    <col customWidth="1" min="2" max="2" width="46.14"/>
+    <col customWidth="1" min="3" max="4" width="25.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="14"/>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="20">
+        <v>43720.0</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="20">
+        <v>43658.0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="20">
+        <v>43567.0</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="29">
+        <v>43810.0</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="29">
+        <v>43780.0</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="31"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="31"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink r:id="rId3" ref="C3"/>
+    <hyperlink r:id="rId4" ref="D3"/>
+    <hyperlink r:id="rId5" ref="C4"/>
+    <hyperlink r:id="rId6" ref="D4"/>
+    <hyperlink r:id="rId7" ref="C5"/>
+    <hyperlink r:id="rId8" ref="D5"/>
+    <hyperlink r:id="rId9" ref="C6"/>
+    <hyperlink r:id="rId10" ref="D6"/>
+    <hyperlink r:id="rId11" ref="C7"/>
+    <hyperlink r:id="rId12" ref="D7"/>
+    <hyperlink r:id="rId13" ref="C8"/>
+    <hyperlink r:id="rId14" ref="D8"/>
+  </hyperlinks>
+  <drawing r:id="rId15"/>
+  <tableParts count="1">
+    <tablePart r:id="rId17"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="41.0"/>
+    <col customWidth="1" min="2" max="2" width="50.0"/>
+    <col customWidth="1" min="3" max="3" width="19.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="14"/>
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="17">
+        <v>43510.0</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="21">
-        <v>43720.0</v>
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="19">
+        <v>43782.0</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="21">
-        <v>43658.0</v>
+      <c r="D5" s="17">
+        <v>43721.0</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="21">
-        <v>43567.0</v>
+      <c r="D6" s="17">
+        <v>43690.0</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="25">
-        <v>43810.0</v>
+      <c r="C7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="17">
+        <v>43659.0</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="25">
-        <v>43780.0</v>
+      <c r="A8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="17">
+        <v>43568.0</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="26"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -933,169 +1469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="41.0"/>
-    <col customWidth="1" min="2" max="2" width="50.0"/>
-    <col customWidth="1" min="3" max="3" width="19.14"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="16">
-        <v>43510.0</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="17">
-        <v>43782.0</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="16">
-        <v>43721.0</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="16">
-        <v>43690.0</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="16">
-        <v>43659.0</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="16">
-        <v>43568.0</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-  </hyperlinks>
-  <drawing r:id="rId8"/>
-  <tableParts count="1">
-    <tablePart r:id="rId10"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1114,281 +1488,281 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="D1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
+      <c r="L1" s="21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="A3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="A4" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="A5" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="A6" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="A7" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="C8" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="A9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="A10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data-raw/works.xlsx
+++ b/data-raw/works.xlsx
@@ -14,32 +14,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
   <si>
     <t>Authors</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
     <t>Publication</t>
   </si>
   <si>
+    <t>url_short</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
     <t>Volume</t>
   </si>
   <si>
     <t>Number</t>
   </si>
   <si>
+    <t>last_updated</t>
+  </si>
+  <si>
     <t>Pages</t>
   </si>
   <si>
+    <t>finished</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
+    <t>On Polytopes and Lattice-Point Enumeration</t>
+  </si>
+  <si>
+    <t>Completing KF-SPLS with Ryser</t>
+  </si>
+  <si>
     <t xml:space="preserve">Davis, Sean; Henderson, Matthew; Smith, Andrew; </t>
   </si>
   <si>
@@ -49,39 +76,24 @@
     <t>Proceedings of the 9th Python in Science Conference</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>url_short</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>last_updated</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>On Polytopes and Lattice-Point Enumeration</t>
-  </si>
-  <si>
     <t>Notes on Ehrhart Theory, including examples in Polymake.</t>
   </si>
   <si>
-    <t>Completing KF-SPLS with Ryser</t>
+    <t>An [IPython][ipython] notebook demonstrating some ideas about completing KF-SPLS using the [Ryser][ryserhome] package for partial latin square completion.</t>
   </si>
   <si>
     <t>https://gitlab.com/MHenderson1/notes/blob/master/14_03_09_ehrhart.pdf</t>
   </si>
   <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
+  </si>
+  <si>
+    <t>https://conference.scipy.org/proceedings/scipy2010/pdfs/henderson.pdf</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2LPaCjR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Henderson, Peter; Henderson, Matthew J; </t>
   </si>
   <si>
@@ -91,12 +103,30 @@
     <t>International Conference on Software Reuse</t>
   </si>
   <si>
-    <t>An [IPython][ipython] notebook demonstrating some ideas about completing KF-SPLS using the [Ryser][ryserhome] package for partial latin square completion.</t>
+    <t>An Introduction to NetworkX</t>
+  </si>
+  <si>
+    <t>An IPython notebook demonstrating the use of the NetworkX package for graph and network analysis in Python</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
   </si>
   <si>
     <t>Springer</t>
   </si>
   <si>
+    <t>https://doi.org/10.1007/978-3-642-04211-9_1</t>
+  </si>
+  <si>
+    <t>On the Completability of Wing-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Completable, bound, untethered KF-SPLS of even order are characterised.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
+  </si>
+  <si>
     <t>Collaborative Development of System Architecture-a Tool for Coping with Inconsistency.</t>
   </si>
   <si>
@@ -106,6 +136,18 @@
     <t>520-525</t>
   </si>
   <si>
+    <t>Computational and Numerical Methods</t>
+  </si>
+  <si>
+    <t>An IPython notebook demonstrating the use of Octave for numerical methods.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2YIm0U8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Henderson, Matthew; Shawe-Taylor, John; Žerovnik, Janez; </t>
   </si>
   <si>
@@ -118,6 +160,24 @@
     <t>386-398</t>
   </si>
   <si>
+    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
+  </si>
+  <si>
+    <t>Some ideas about the intricacy of completing partial latin squares.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/11564089_30</t>
+  </si>
+  <si>
+    <t>Processing GPS Data in Python</t>
+  </si>
+  <si>
+    <t>An [IPython][ipython] notebook presenting a statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Henderson, Matthew James; </t>
   </si>
   <si>
@@ -127,93 +187,48 @@
     <t>University of Reading</t>
   </si>
   <si>
+    <t>https://mjh-phd.netlify.com/</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2snV3sH</t>
+  </si>
+  <si>
+    <t>Modelling Sudoku Puzzles in Python</t>
+  </si>
+  <si>
     <t xml:space="preserve">Henderson, MJ; Hilton, AJW; </t>
   </si>
   <si>
+    <t>An updated version of {% cite davis7modeling –file mh2 %} as an IPython notebook.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
+  </si>
+  <si>
     <t>Completing An Edge-Colouring of $ K_ {2m} $ with $ K_r $ and Independent Edges Precoloured</t>
   </si>
   <si>
     <t>Journal of the London Mathematical Society</t>
   </si>
   <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
-  </si>
-  <si>
     <t>545-566</t>
   </si>
   <si>
+    <t>On the Completability of Kite-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
+  </si>
+  <si>
     <t>Cambridge University Press</t>
   </si>
   <si>
-    <t>http://bit.ly/2LPaCjR</t>
-  </si>
-  <si>
-    <t>An Introduction to NetworkX</t>
-  </si>
-  <si>
-    <t>An IPython notebook demonstrating the use of the NetworkX package for graph and network analysis in Python</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
-  </si>
-  <si>
-    <t>On the Completability of Wing-Form Partial Latin Squares</t>
-  </si>
-  <si>
-    <t>Completable, bound, untethered KF-SPLS of even order are characterised.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2YIm0U8</t>
-  </si>
-  <si>
-    <t>Computational and Numerical Methods</t>
-  </si>
-  <si>
-    <t>An IPython notebook demonstrating the use of Octave for numerical methods.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
-  </si>
-  <si>
-    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
-  </si>
-  <si>
-    <t>Some ideas about the intricacy of completing partial latin squares.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
-  </si>
-  <si>
-    <t>Processing GPS Data in Python</t>
-  </si>
-  <si>
-    <t>An [IPython][ipython] notebook presenting a statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2snV3sH</t>
-  </si>
-  <si>
-    <t>Modelling Sudoku Puzzles in Python</t>
-  </si>
-  <si>
-    <t>An updated version of {% cite davis7modeling –file mh2 %} as an IPython notebook.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
-  </si>
-  <si>
-    <t>On the Completability of Kite-Form Partial Latin Squares</t>
-  </si>
-  <si>
-    <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
-  </si>
-  <si>
     <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
   </si>
   <si>
+    <t>https://doi.org/10.1112/s0024610704005526</t>
+  </si>
+  <si>
     <t>Speech Annotation in Python Using Regular Expressions</t>
   </si>
   <si>
@@ -226,6 +241,51 @@
     <t>https://nbviewer.jupyter.org/gist/MHenderson/6052936</t>
   </si>
   <si>
+    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+  </si>
+  <si>
+    <t>Describing the discovery of a PSSSODLS of order 9.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
+  </si>
+  <si>
+    <t>List-colouring in Python with Vizing</t>
+  </si>
+  <si>
+    <t>An IPython notebook introducing list-colouring of graphs using the [Vizing][vizinghome] package.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2PKgsEq</t>
+  </si>
+  <si>
+    <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+  </si>
+  <si>
+    <t>Using Essence', Savile Row and Minion to model PSSSODLS.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2skFkut</t>
+  </si>
+  <si>
+    <t>A Brief Introduction to Goldberg's Conjecture</t>
+  </si>
+  <si>
+    <t>An introduction to Goldberg's conjecture on edge-colouring.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_11_17_goldberg.pdf</t>
+  </si>
+  <si>
+    <t>http://bit.ly/35htArm</t>
+  </si>
+  <si>
     <t>language</t>
   </si>
   <si>
@@ -250,51 +310,18 @@
     <t>todotxt</t>
   </si>
   <si>
-    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
-  </si>
-  <si>
-    <t>Describing the discovery of a PSSSODLS of order 9.</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>List-colouring in Python with Vizing</t>
-  </si>
-  <si>
     <t>An R package for parsing todo.txt files.</t>
   </si>
   <si>
-    <t>An IPython notebook introducing list-colouring of graphs using the [Vizing][vizinghome] package.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
-  </si>
-  <si>
     <t>https://mhenderson.github.io/todotxt/</t>
   </si>
   <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
-  </si>
-  <si>
     <t>https://github.com/MHenderson/todotxt</t>
   </si>
   <si>
-    <t>http://bit.ly/2PKgsEq</t>
-  </si>
-  <si>
-    <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
-  </si>
-  <si>
-    <t>Using Essence', Savile Row and Minion to model PSSSODLS.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2skFkut</t>
-  </si>
-  <si>
     <t>funcgeo</t>
   </si>
   <si>
@@ -304,19 +331,7 @@
     <t>https://mhenderson.github.io/funcgeo/</t>
   </si>
   <si>
-    <t>A Brief Introduction to Goldberg's Conjecture</t>
-  </si>
-  <si>
     <t>https://github.com/mhenderson/funcgeo</t>
-  </si>
-  <si>
-    <t>An introduction to Goldberg's conjecture on edge-colouring.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_11_17_goldberg.pdf</t>
-  </si>
-  <si>
-    <t>http://bit.ly/35htArm</t>
   </si>
   <si>
     <t xml:space="preserve">vizing
@@ -426,7 +441,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -434,16 +449,20 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -480,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -488,31 +507,25 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -520,72 +533,65 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,8 +679,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H7" displayName="Table_1" id="1">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I7" displayName="Table_1" id="1">
+  <tableColumns count="9">
     <tableColumn name="Authors" id="1"/>
     <tableColumn name="Title" id="2"/>
     <tableColumn name="Publication" id="3"/>
@@ -683,6 +689,7 @@
     <tableColumn name="Pages" id="6"/>
     <tableColumn name="Year" id="7"/>
     <tableColumn name="Publisher" id="8"/>
+    <tableColumn name="url" id="9"/>
   </tableColumns>
   <tableStyleInfo name="publications-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -944,6 +951,7 @@
     <col customWidth="1" min="1" max="1" width="28.29"/>
     <col customWidth="1" min="2" max="2" width="41.86"/>
     <col customWidth="1" min="3" max="3" width="18.43"/>
+    <col customWidth="1" min="9" max="9" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -951,161 +959,190 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6">
         <v>7.0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3">
+      <c r="E2" s="7"/>
+      <c r="F2" s="6">
         <v>3.0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>2010.0</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="14">
         <v>43475.0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>2009.0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6">
         <v>2009.0</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2005.0</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="I5" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6">
         <v>2005.0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3">
-        <v>2005.0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>36</v>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6">
         <v>70.0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>3.0</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6">
         <v>2004.0</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink r:id="rId3" ref="I4"/>
+    <hyperlink r:id="rId4" ref="I5"/>
+    <hyperlink r:id="rId5" ref="I6"/>
+    <hyperlink r:id="rId6" ref="I7"/>
+  </hyperlinks>
+  <drawing r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1126,162 +1163,162 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="C4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="16">
         <v>43720.0</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="20">
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="16">
         <v>43658.0</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="16">
+        <v>43567.0</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="18">
+        <v>43810.0</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="B8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="20">
-        <v>43567.0</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="25" t="s">
+      <c r="D8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="29">
-        <v>43810.0</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="E8" s="18">
         <v>43780.0</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="31"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="16">
-      <c r="A16" s="31"/>
+      <c r="A16" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1323,134 +1360,134 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="16">
+        <v>43510.0</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="17">
-        <v>43510.0</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="18">
+        <v>43782.0</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="19">
-        <v>43782.0</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16">
         <v>43721.0</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>43690.0</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="16">
         <v>43659.0</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="A8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="16">
         <v>43568.0</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1488,84 +1525,84 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="27" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>97</v>
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
@@ -1576,20 +1613,20 @@
       <c r="L3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>105</v>
+      <c r="A4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -1600,20 +1637,20 @@
       <c r="L4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>109</v>
+      <c r="C5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -1624,20 +1661,20 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>113</v>
+      <c r="A6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -1648,20 +1685,20 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>117</v>
+      <c r="A7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -1672,97 +1709,97 @@
       <c r="L7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="A8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
+        <v>129</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="A10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
+      <c r="A11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data-raw/works.xlsx
+++ b/data-raw/works.xlsx
@@ -14,57 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="145">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>Authors</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>url</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>url</t>
+    <t>url_short</t>
+  </si>
+  <si>
+    <t>started</t>
   </si>
   <si>
     <t>Publication</t>
   </si>
   <si>
-    <t>url_short</t>
-  </si>
-  <si>
-    <t>started</t>
+    <t>last_updated</t>
   </si>
   <si>
     <t>Volume</t>
   </si>
   <si>
+    <t>finished</t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
-    <t>last_updated</t>
+    <t>On Polytopes and Lattice-Point Enumeration</t>
   </si>
   <si>
     <t>Pages</t>
   </si>
   <si>
-    <t>finished</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
+    <t>Completing KF-SPLS with Ryser</t>
+  </si>
+  <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>On Polytopes and Lattice-Point Enumeration</t>
-  </si>
-  <si>
-    <t>Completing KF-SPLS with Ryser</t>
+    <t>Notes on Ehrhart Theory, including examples in Polymake.</t>
   </si>
   <si>
     <t xml:space="preserve">Davis, Sean; Henderson, Matthew; Smith, Andrew; </t>
@@ -76,9 +79,6 @@
     <t>Proceedings of the 9th Python in Science Conference</t>
   </si>
   <si>
-    <t>Notes on Ehrhart Theory, including examples in Polymake.</t>
-  </si>
-  <si>
     <t>An [IPython][ipython] notebook demonstrating some ideas about completing KF-SPLS using the [Ryser][ryserhome] package for partial latin square completion.</t>
   </si>
   <si>
@@ -112,19 +112,22 @@
     <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
   </si>
   <si>
+    <t>On the Completability of Wing-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Completable, bound, untethered KF-SPLS of even order are characterised.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
+  </si>
+  <si>
     <t>Springer</t>
   </si>
   <si>
     <t>https://doi.org/10.1007/978-3-642-04211-9_1</t>
   </si>
   <si>
-    <t>On the Completability of Wing-Form Partial Latin Squares</t>
-  </si>
-  <si>
-    <t>Completable, bound, untethered KF-SPLS of even order are characterised.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
+    <t>http://bit.ly/2YIm0U8</t>
   </si>
   <si>
     <t>Collaborative Development of System Architecture-a Tool for Coping with Inconsistency.</t>
@@ -145,13 +148,16 @@
     <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
   </si>
   <si>
-    <t>http://bit.ly/2YIm0U8</t>
+    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
+  </si>
+  <si>
+    <t>Some ideas about the intricacy of completing partial latin squares.</t>
   </si>
   <si>
     <t xml:space="preserve">Henderson, Matthew; Shawe-Taylor, John; Žerovnik, Janez; </t>
   </si>
   <si>
-    <t>Mixture of vector experts</t>
+    <t>Mixture of Vector Experts</t>
   </si>
   <si>
     <t>International Conference on Algorithmic Learning Theory</t>
@@ -160,94 +166,100 @@
     <t>386-398</t>
   </si>
   <si>
-    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
-  </si>
-  <si>
-    <t>Some ideas about the intricacy of completing partial latin squares.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1007/11564089_30</t>
   </si>
   <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henderson, Matthew James; </t>
+  </si>
+  <si>
+    <t>Embedding symmetric latin squares and edge-coloured graphs</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2snV3sH</t>
+  </si>
+  <si>
+    <t>University of Reading</t>
+  </si>
+  <si>
+    <t>https://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.485356</t>
+  </si>
+  <si>
     <t>Processing GPS Data in Python</t>
   </si>
   <si>
     <t>An [IPython][ipython] notebook presenting a statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks</t>
   </si>
   <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henderson, Matthew James; </t>
-  </si>
-  <si>
-    <t>Embedding symmetric latin squares and edge-coloured graphs</t>
-  </si>
-  <si>
-    <t>University of Reading</t>
-  </si>
-  <si>
-    <t>https://mjh-phd.netlify.com/</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2snV3sH</t>
+    <t>On the Completability of Kite-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henderson, MJ; Hilton, AJW; </t>
+  </si>
+  <si>
+    <t>Completing An Edge-Colouring of $ K_ {2m} $ with $ K_r $ and Independent Edges Precoloured</t>
+  </si>
+  <si>
+    <t>Journal of the London Mathematical Society</t>
+  </si>
+  <si>
+    <t>545-566</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1112/s0024610704005526</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2rIHjJ6</t>
+  </si>
+  <si>
+    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+  </si>
+  <si>
+    <t>Describing the discovery of a PSSSODLS of order 9.</t>
   </si>
   <si>
     <t>Modelling Sudoku Puzzles in Python</t>
   </si>
   <si>
-    <t xml:space="preserve">Henderson, MJ; Hilton, AJW; </t>
-  </si>
-  <si>
     <t>An updated version of {% cite davis7modeling –file mh2 %} as an IPython notebook.</t>
   </si>
   <si>
     <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
   </si>
   <si>
-    <t>Completing An Edge-Colouring of $ K_ {2m} $ with $ K_r $ and Independent Edges Precoloured</t>
-  </si>
-  <si>
-    <t>Journal of the London Mathematical Society</t>
-  </si>
-  <si>
-    <t>545-566</t>
-  </si>
-  <si>
-    <t>On the Completability of Kite-Form Partial Latin Squares</t>
-  </si>
-  <si>
-    <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
-  </si>
-  <si>
-    <t>Cambridge University Press</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1112/s0024610704005526</t>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2PKgsEq</t>
   </si>
   <si>
     <t>Speech Annotation in Python Using Regular Expressions</t>
   </si>
   <si>
-    <t>http://bit.ly/2rIHjJ6</t>
-  </si>
-  <si>
     <t>An IPython notebook which illustrates some basic ideas about annotating a corpus of novels using regular expressions.</t>
   </si>
   <si>
     <t>https://nbviewer.jupyter.org/gist/MHenderson/6052936</t>
   </si>
   <si>
-    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
-  </si>
-  <si>
-    <t>Describing the discovery of a PSSSODLS of order 9.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
+    <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+  </si>
+  <si>
+    <t>Using Essence', Savile Row and Minion to model PSSSODLS.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
   </si>
   <si>
     <t>List-colouring in Python with Vizing</t>
@@ -257,18 +269,6 @@
   </si>
   <si>
     <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2PKgsEq</t>
-  </si>
-  <si>
-    <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
-  </si>
-  <si>
-    <t>Using Essence', Savile Row and Minion to model PSSSODLS.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
   </si>
   <si>
     <t>http://bit.ly/2skFkut</t>
@@ -429,7 +429,32 @@
     <t>Code to accompany ALT 2005 paper.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://gitlab.com/MHenderson1/experts
+</t>
+  </si>
+  <si>
     <t>https://bitbucket.org/matthew/experts/src/default/</t>
+  </si>
+  <si>
+    <t>psssodls.py</t>
+  </si>
+  <si>
+    <t>Generator of PSSSODLS in Minion format.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/MHenderson/375a2122f1b77f90e5df</t>
+  </si>
+  <si>
+    <t>psssodls.eprime</t>
+  </si>
+  <si>
+    <t>Essence'</t>
+  </si>
+  <si>
+    <t>Essence' description of PSSSODLS</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/MHenderson/6200476</t>
   </si>
 </sst>
 </file>
@@ -441,7 +466,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -453,11 +478,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <b/>
     </font>
     <font/>
     <font>
@@ -484,6 +509,10 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -499,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -507,24 +536,24 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -542,58 +571,71 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -725,7 +767,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L11" displayName="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L13" displayName="Table_4" id="4">
   <tableColumns count="12">
     <tableColumn name="title" id="1"/>
     <tableColumn name="language" id="2"/>
@@ -956,42 +998,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="6">
         <v>7.0</v>
@@ -1009,84 +1051,84 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="14">
+      <c r="F3" s="15">
         <v>43475.0</v>
       </c>
       <c r="G3" s="6">
         <v>2009.0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>32</v>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6">
         <v>2009.0</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="6">
         <v>2005.0</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>55</v>
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
@@ -1095,21 +1137,21 @@
       <c r="G6" s="6">
         <v>2005.0</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="6">
@@ -1124,11 +1166,11 @@
       <c r="G7" s="6">
         <v>2004.0</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
+      <c r="H7" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1164,33 +1206,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
@@ -1199,101 +1241,101 @@
         <v>25</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>49</v>
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4" s="16">
         <v>43720.0</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>66</v>
+      <c r="A5" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="16">
         <v>43658.0</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="E6" s="16">
         <v>43567.0</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="19">
         <v>43810.0</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
@@ -1308,11 +1350,11 @@
       <c r="D8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="19">
         <v>43780.0</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="24"/>
@@ -1361,27 +1403,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
+      <c r="A2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
@@ -1394,7 +1436,7 @@
       <c r="F2" s="13"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1410,30 +1452,30 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>40</v>
+      <c r="A4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="18">
+        <v>43</v>
+      </c>
+      <c r="D4" s="19">
         <v>43782.0</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
+      <c r="A5" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="16">
         <v>43721.0</v>
@@ -1442,14 +1484,14 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>59</v>
+      <c r="A6" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D6" s="16">
         <v>43690.0</v>
@@ -1458,14 +1500,14 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>71</v>
+      <c r="A7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7" s="16">
         <v>43659.0</v>
@@ -1474,14 +1516,14 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>78</v>
+      <c r="A8" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D8" s="16">
         <v>43568.0</v>
@@ -1522,17 +1564,18 @@
     <col customWidth="1" min="3" max="3" width="31.71"/>
     <col customWidth="1" min="4" max="4" width="19.57"/>
     <col customWidth="1" min="5" max="5" width="17.0"/>
+    <col customWidth="1" min="6" max="6" width="18.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>91</v>
@@ -1553,13 +1596,13 @@
         <v>96</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -1569,7 +1612,7 @@
       <c r="B2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1595,7 +1638,7 @@
       <c r="B3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -1619,7 +1662,7 @@
       <c r="B4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1643,7 +1686,7 @@
       <c r="B5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -1724,13 +1767,13 @@
       <c r="E8" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -1739,22 +1782,22 @@
       <c r="B9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E9" s="30"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
@@ -1763,7 +1806,7 @@
       <c r="B10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1773,12 +1816,12 @@
       <c r="F10" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
@@ -1791,15 +1834,61 @@
         <v>135</v>
       </c>
       <c r="D11" s="31"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="G11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+        <v>137</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1822,11 +1911,15 @@
     <hyperlink r:id="rId17" ref="G9"/>
     <hyperlink r:id="rId18" ref="D10"/>
     <hyperlink r:id="rId19" ref="F10"/>
-    <hyperlink r:id="rId20" ref="G11"/>
+    <hyperlink r:id="rId20" ref="F11"/>
+    <hyperlink r:id="rId21" ref="G11"/>
+    <hyperlink r:id="rId22" ref="A12"/>
+    <hyperlink r:id="rId23" ref="E12"/>
+    <hyperlink r:id="rId24" ref="E13"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data-raw/works.xlsx
+++ b/data-raw/works.xlsx
@@ -19,12 +19,12 @@
     <t>title</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
-    <t>Authors</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -58,18 +58,27 @@
     <t>Pages</t>
   </si>
   <si>
+    <t>Completing KF-SPLS with Ryser</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Completing KF-SPLS with Ryser</t>
-  </si>
-  <si>
     <t>Publisher</t>
   </si>
   <si>
     <t>Notes on Ehrhart Theory, including examples in Polymake.</t>
   </si>
   <si>
+    <t>An [IPython][ipython] notebook demonstrating some ideas about completing KF-SPLS using the [Ryser][ryserhome] package for partial latin square completion.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/14_03_09_ehrhart.pdf</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
+  </si>
+  <si>
     <t xml:space="preserve">Davis, Sean; Henderson, Matthew; Smith, Andrew; </t>
   </si>
   <si>
@@ -79,19 +88,31 @@
     <t>Proceedings of the 9th Python in Science Conference</t>
   </si>
   <si>
-    <t>An [IPython][ipython] notebook demonstrating some ideas about completing KF-SPLS using the [Ryser][ryserhome] package for partial latin square completion.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/14_03_09_ehrhart.pdf</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
+    <t>http://bit.ly/2LPaCjR</t>
   </si>
   <si>
     <t>https://conference.scipy.org/proceedings/scipy2010/pdfs/henderson.pdf</t>
   </si>
   <si>
-    <t>http://bit.ly/2LPaCjR</t>
+    <t>On the Completability of Wing-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Completable, bound, untethered KF-SPLS of even order are characterised.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
+  </si>
+  <si>
+    <t>An Introduction to NetworkX</t>
+  </si>
+  <si>
+    <t>An IPython notebook demonstrating the use of the NetworkX package for graph and network analysis in Python</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2YIm0U8</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
   </si>
   <si>
     <t xml:space="preserve">Henderson, Peter; Henderson, Matthew J; </t>
@@ -103,22 +124,10 @@
     <t>International Conference on Software Reuse</t>
   </si>
   <si>
-    <t>An Introduction to NetworkX</t>
-  </si>
-  <si>
-    <t>An IPython notebook demonstrating the use of the NetworkX package for graph and network analysis in Python</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
-  </si>
-  <si>
-    <t>On the Completability of Wing-Form Partial Latin Squares</t>
-  </si>
-  <si>
-    <t>Completable, bound, untethered KF-SPLS of even order are characterised.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
+    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
+  </si>
+  <si>
+    <t>Some ideas about the intricacy of completing partial latin squares.</t>
   </si>
   <si>
     <t>Springer</t>
@@ -127,7 +136,16 @@
     <t>https://doi.org/10.1007/978-3-642-04211-9_1</t>
   </si>
   <si>
-    <t>http://bit.ly/2YIm0U8</t>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
+  </si>
+  <si>
+    <t>Computational and Numerical Methods</t>
+  </si>
+  <si>
+    <t>An IPython notebook demonstrating the use of Octave for numerical methods.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
   </si>
   <si>
     <t>Collaborative Development of System Architecture-a Tool for Coping with Inconsistency.</t>
@@ -136,22 +154,28 @@
     <t>SEKE</t>
   </si>
   <si>
+    <t>http://bit.ly/2snV3sH</t>
+  </si>
+  <si>
     <t>520-525</t>
   </si>
   <si>
-    <t>Computational and Numerical Methods</t>
-  </si>
-  <si>
-    <t>An IPython notebook demonstrating the use of Octave for numerical methods.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
-  </si>
-  <si>
-    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
-  </si>
-  <si>
-    <t>Some ideas about the intricacy of completing partial latin squares.</t>
+    <t>On the Completability of Kite-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
+  </si>
+  <si>
+    <t>Processing GPS Data in Python</t>
+  </si>
+  <si>
+    <t>An [IPython][ipython] notebook presenting a statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2rIHjJ6</t>
   </si>
   <si>
     <t xml:space="preserve">Henderson, Matthew; Shawe-Taylor, John; Žerovnik, Janez; </t>
@@ -169,7 +193,22 @@
     <t>https://doi.org/10.1007/11564089_30</t>
   </si>
   <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
+    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+  </si>
+  <si>
+    <t>Describing the discovery of a PSSSODLS of order 9.</t>
+  </si>
+  <si>
+    <t>Modelling Sudoku Puzzles in Python</t>
+  </si>
+  <si>
+    <t>An updated version of {% cite davis7modeling –file mh2 %} as an IPython notebook.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Henderson, Matthew James; </t>
@@ -178,28 +217,22 @@
     <t>Embedding symmetric latin squares and edge-coloured graphs</t>
   </si>
   <si>
-    <t>http://bit.ly/2snV3sH</t>
-  </si>
-  <si>
     <t>University of Reading</t>
   </si>
   <si>
     <t>https://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.485356</t>
   </si>
   <si>
-    <t>Processing GPS Data in Python</t>
-  </si>
-  <si>
-    <t>An [IPython][ipython] notebook presenting a statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks</t>
-  </si>
-  <si>
-    <t>On the Completability of Kite-Form Partial Latin Squares</t>
-  </si>
-  <si>
-    <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
+    <t>http://bit.ly/2PKgsEq</t>
+  </si>
+  <si>
+    <t>Speech Annotation in Python Using Regular Expressions</t>
+  </si>
+  <si>
+    <t>An IPython notebook which illustrates some basic ideas about annotating a corpus of novels using regular expressions.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6052936</t>
   </si>
   <si>
     <t xml:space="preserve">Henderson, MJ; Hilton, AJW; </t>
@@ -211,6 +244,9 @@
     <t>Journal of the London Mathematical Society</t>
   </si>
   <si>
+    <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+  </si>
+  <si>
     <t>545-566</t>
   </si>
   <si>
@@ -220,55 +256,19 @@
     <t>https://doi.org/10.1112/s0024610704005526</t>
   </si>
   <si>
-    <t>http://bit.ly/2rIHjJ6</t>
-  </si>
-  <si>
-    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
-  </si>
-  <si>
-    <t>Describing the discovery of a PSSSODLS of order 9.</t>
-  </si>
-  <si>
-    <t>Modelling Sudoku Puzzles in Python</t>
-  </si>
-  <si>
-    <t>An updated version of {% cite davis7modeling –file mh2 %} as an IPython notebook.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2PKgsEq</t>
-  </si>
-  <si>
-    <t>Speech Annotation in Python Using Regular Expressions</t>
-  </si>
-  <si>
-    <t>An IPython notebook which illustrates some basic ideas about annotating a corpus of novels using regular expressions.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6052936</t>
-  </si>
-  <si>
-    <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+    <t>List-colouring in Python with Vizing</t>
+  </si>
+  <si>
+    <t>An IPython notebook introducing list-colouring of graphs using the [Vizing][vizinghome] package.</t>
   </si>
   <si>
     <t>Using Essence', Savile Row and Minion to model PSSSODLS.</t>
   </si>
   <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
+  </si>
+  <si>
     <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
-  </si>
-  <si>
-    <t>List-colouring in Python with Vizing</t>
-  </si>
-  <si>
-    <t>An IPython notebook introducing list-colouring of graphs using the [Vizing][vizinghome] package.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
   </si>
   <si>
     <t>http://bit.ly/2skFkut</t>
@@ -426,7 +426,7 @@
     <t>experts</t>
   </si>
   <si>
-    <t>Code to accompany ALT 2005 paper.</t>
+    <t>Code to accompany @henderson_mixture_2005.</t>
   </si>
   <si>
     <t xml:space="preserve">https://gitlab.com/MHenderson1/experts
@@ -481,10 +481,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -528,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -538,104 +538,107 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -721,7 +724,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I7" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I7" displayName="Table_2" id="2">
   <tableColumns count="9">
     <tableColumn name="Authors" id="1"/>
     <tableColumn name="Title" id="2"/>
@@ -753,7 +756,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F8" displayName="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F8" displayName="Table_1" id="1">
   <tableColumns count="6">
     <tableColumn name="title" id="1"/>
     <tableColumn name="description" id="2"/>
@@ -998,7 +1001,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1016,52 +1019,52 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6">
         <v>7.0</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="6">
         <v>3.0</v>
       </c>
       <c r="G2" s="6">
         <v>2010.0</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="12" t="s">
-        <v>24</v>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="15">
         <v>43475.0</v>
       </c>
@@ -1069,90 +1072,90 @@
         <v>2009.0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G4" s="6">
         <v>2009.0</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="17" t="s">
-        <v>36</v>
+      <c r="H4" s="11"/>
+      <c r="I4" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G5" s="6">
         <v>2005.0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="6">
         <v>2005.0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6">
         <v>70.0</v>
@@ -1161,16 +1164,16 @@
         <v>3.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G7" s="6">
         <v>2004.0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1231,111 +1234,111 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="16">
+        <v>36</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="17">
         <v>43720.0</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="16">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="17">
         <v>43658.0</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>43567.0</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>43810.0</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
@@ -1344,17 +1347,17 @@
       <c r="B8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>43780.0</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="24"/>
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1423,113 +1426,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="17">
         <v>43510.0</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>43782.0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>43721.0</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="16">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="17">
         <v>43690.0</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="16">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="17">
         <v>43659.0</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>43568.0</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1575,7 +1578,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>91</v>
@@ -1615,10 +1618,10 @@
       <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="26"/>
@@ -1641,10 +1644,10 @@
       <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="28"/>
@@ -1665,10 +1668,10 @@
       <c r="C4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="28"/>
@@ -1689,10 +1692,10 @@
       <c r="C5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="28"/>
@@ -1713,10 +1716,10 @@
       <c r="C6" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F6" s="28"/>
@@ -1737,10 +1740,10 @@
       <c r="C7" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="28"/>
@@ -1761,19 +1764,19 @@
       <c r="C8" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -1785,19 +1788,19 @@
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>73</v>
+      <c r="D9" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E9" s="30"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
@@ -1809,19 +1812,19 @@
       <c r="C10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="30"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
@@ -1830,65 +1833,65 @@
       <c r="B11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="32"/>
+      <c r="F11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data-raw/works.xlsx
+++ b/data-raw/works.xlsx
@@ -16,82 +16,97 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="145">
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
-    <t>Authors</t>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Publication</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
+    <t>Volume</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Number</t>
   </si>
   <si>
     <t>url_short</t>
   </si>
   <si>
+    <t>Pages</t>
+  </si>
+  <si>
     <t>started</t>
   </si>
   <si>
-    <t>Publication</t>
+    <t>Year</t>
   </si>
   <si>
     <t>last_updated</t>
   </si>
   <si>
-    <t>Volume</t>
+    <t>Publisher</t>
   </si>
   <si>
     <t>finished</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>On Polytopes and Lattice-Point Enumeration</t>
   </si>
   <si>
-    <t>Pages</t>
-  </si>
-  <si>
     <t>Completing KF-SPLS with Ryser</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publisher</t>
+    <t xml:space="preserve">Davis, Sean; Henderson, Matthew; Smith, Andrew; </t>
+  </si>
+  <si>
+    <t>An [IPython][ipython] notebook demonstrating some ideas about completing KF-SPLS using the [Ryser][ryserhome] package for partial latin square completion.</t>
   </si>
   <si>
     <t>Notes on Ehrhart Theory, including examples in Polymake.</t>
   </si>
   <si>
-    <t>An [IPython][ipython] notebook demonstrating some ideas about completing KF-SPLS using the [Ryser][ryserhome] package for partial latin square completion.</t>
+    <t>Modeling Sudoku Puzzles with Python</t>
+  </si>
+  <si>
+    <t>Proceedings of the 9th Python in Science Conference</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
   </si>
   <si>
     <t>https://gitlab.com/MHenderson1/notes/blob/master/14_03_09_ehrhart.pdf</t>
   </si>
   <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davis, Sean; Henderson, Matthew; Smith, Andrew; </t>
-  </si>
-  <si>
-    <t>Modeling Sudoku Puzzles with Python</t>
-  </si>
-  <si>
-    <t>Proceedings of the 9th Python in Science Conference</t>
+    <t>https://conference.scipy.org/proceedings/scipy2010/pdfs/henderson.pdf</t>
   </si>
   <si>
     <t>http://bit.ly/2LPaCjR</t>
   </si>
   <si>
-    <t>https://conference.scipy.org/proceedings/scipy2010/pdfs/henderson.pdf</t>
+    <t xml:space="preserve">Henderson, Peter; Henderson, Matthew J; </t>
+  </si>
+  <si>
+    <t>Consistency Checking for Component Reuse in Open Systems</t>
+  </si>
+  <si>
+    <t>International Conference on Software Reuse</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-04211-9_1</t>
   </si>
   <si>
     <t>On the Completability of Wing-Form Partial Latin Squares</t>
@@ -103,102 +118,120 @@
     <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
   </si>
   <si>
+    <t>Collaborative Development of System Architecture-a Tool for Coping with Inconsistency.</t>
+  </si>
+  <si>
+    <t>SEKE</t>
+  </si>
+  <si>
     <t>An Introduction to NetworkX</t>
   </si>
   <si>
+    <t>http://bit.ly/2YIm0U8</t>
+  </si>
+  <si>
+    <t>520-525</t>
+  </si>
+  <si>
     <t>An IPython notebook demonstrating the use of the NetworkX package for graph and network analysis in Python</t>
   </si>
   <si>
-    <t>http://bit.ly/2YIm0U8</t>
-  </si>
-  <si>
     <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
   </si>
   <si>
-    <t xml:space="preserve">Henderson, Peter; Henderson, Matthew J; </t>
-  </si>
-  <si>
-    <t>Consistency Checking for Component Reuse in Open Systems</t>
-  </si>
-  <si>
-    <t>International Conference on Software Reuse</t>
-  </si>
-  <si>
     <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
   </si>
   <si>
     <t>Some ideas about the intricacy of completing partial latin squares.</t>
   </si>
   <si>
-    <t>Springer</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/978-3-642-04211-9_1</t>
+    <t xml:space="preserve">Henderson, Matthew; Shawe-Taylor, John; Žerovnik, Janez; </t>
+  </si>
+  <si>
+    <t>Mixture of Vector Experts</t>
+  </si>
+  <si>
+    <t>International Conference on Algorithmic Learning Theory</t>
   </si>
   <si>
     <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
   </si>
   <si>
+    <t>386-398</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/11564089_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henderson, Matthew James; </t>
+  </si>
+  <si>
+    <t>Embedding symmetric latin squares and edge-coloured graphs</t>
+  </si>
+  <si>
     <t>Computational and Numerical Methods</t>
   </si>
   <si>
+    <t>http://bit.ly/2snV3sH</t>
+  </si>
+  <si>
     <t>An IPython notebook demonstrating the use of Octave for numerical methods.</t>
   </si>
   <si>
     <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
   </si>
   <si>
-    <t>Collaborative Development of System Architecture-a Tool for Coping with Inconsistency.</t>
-  </si>
-  <si>
-    <t>SEKE</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2snV3sH</t>
-  </si>
-  <si>
-    <t>520-525</t>
+    <t>University of Reading</t>
+  </si>
+  <si>
+    <t>https://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.485356</t>
   </si>
   <si>
     <t>On the Completability of Kite-Form Partial Latin Squares</t>
   </si>
   <si>
+    <t xml:space="preserve">Henderson, MJ; Hilton, AJW; </t>
+  </si>
+  <si>
+    <t>Completing An Edge-Colouring of $ K_ {2m} $ with $ K_r $ and Independent Edges Precoloured</t>
+  </si>
+  <si>
     <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
   </si>
   <si>
+    <t>Journal of the London Mathematical Society</t>
+  </si>
+  <si>
     <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
   </si>
   <si>
+    <t>545-566</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1112/s0024610704005526</t>
+  </si>
+  <si>
     <t>Processing GPS Data in Python</t>
   </si>
   <si>
+    <t>http://bit.ly/2rIHjJ6</t>
+  </si>
+  <si>
     <t>An [IPython][ipython] notebook presenting a statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks</t>
   </si>
   <si>
-    <t>http://bit.ly/2rIHjJ6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henderson, Matthew; Shawe-Taylor, John; Žerovnik, Janez; </t>
-  </si>
-  <si>
-    <t>Mixture of Vector Experts</t>
-  </si>
-  <si>
-    <t>International Conference on Algorithmic Learning Theory</t>
-  </si>
-  <si>
-    <t>386-398</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/11564089_30</t>
-  </si>
-  <si>
     <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
   </si>
   <si>
     <t>Describing the discovery of a PSSSODLS of order 9.</t>
   </si>
   <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
+  </si>
+  <si>
     <t>Modelling Sudoku Puzzles in Python</t>
   </si>
   <si>
@@ -208,21 +241,6 @@
     <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
   </si>
   <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henderson, Matthew James; </t>
-  </si>
-  <si>
-    <t>Embedding symmetric latin squares and edge-coloured graphs</t>
-  </si>
-  <si>
-    <t>University of Reading</t>
-  </si>
-  <si>
-    <t>https://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.485356</t>
-  </si>
-  <si>
     <t>http://bit.ly/2PKgsEq</t>
   </si>
   <si>
@@ -235,40 +253,22 @@
     <t>https://nbviewer.jupyter.org/gist/MHenderson/6052936</t>
   </si>
   <si>
-    <t xml:space="preserve">Henderson, MJ; Hilton, AJW; </t>
-  </si>
-  <si>
-    <t>Completing An Edge-Colouring of $ K_ {2m} $ with $ K_r $ and Independent Edges Precoloured</t>
-  </si>
-  <si>
-    <t>Journal of the London Mathematical Society</t>
-  </si>
-  <si>
     <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
   </si>
   <si>
-    <t>545-566</t>
-  </si>
-  <si>
-    <t>Cambridge University Press</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1112/s0024610704005526</t>
+    <t>Using Essence', Savile Row and Minion to model PSSSODLS.</t>
   </si>
   <si>
     <t>List-colouring in Python with Vizing</t>
   </si>
   <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
+  </si>
+  <si>
     <t>An IPython notebook introducing list-colouring of graphs using the [Vizing][vizinghome] package.</t>
   </si>
   <si>
-    <t>Using Essence', Savile Row and Minion to model PSSSODLS.</t>
-  </si>
-  <si>
     <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
   </si>
   <si>
     <t>http://bit.ly/2skFkut</t>
@@ -414,7 +414,7 @@
     <t>wave</t>
   </si>
   <si>
-    <t>Whole Architecture Verification.</t>
+    <t>Whole Architecture Verification (see @henderson_collaborative_nodate and @henderson_consistency_2009).</t>
   </si>
   <si>
     <t>https://pythonhosted.org/Wave/</t>
@@ -478,13 +478,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <b/>
-    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -536,109 +536,109 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -688,12 +688,12 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="notebooks-style">
+    <tableStyle count="3" pivot="0" name="notes-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="notes-style">
+    <tableStyle count="3" pivot="0" name="notebooks-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I7" displayName="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I7" displayName="Table_1" id="1">
   <tableColumns count="9">
     <tableColumn name="Authors" id="1"/>
     <tableColumn name="Title" id="2"/>
@@ -741,7 +741,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G8" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G8" displayName="Table_2" id="2">
   <tableColumns count="7">
     <tableColumn name="title" id="1"/>
     <tableColumn name="description" id="2"/>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F8" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F8" displayName="Table_3" id="3">
   <tableColumns count="6">
     <tableColumn name="title" id="1"/>
     <tableColumn name="description" id="2"/>
@@ -1001,161 +1001,161 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="6">
         <v>7.0</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="6">
         <v>3.0</v>
       </c>
       <c r="G2" s="6">
         <v>2010.0</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10" t="s">
-        <v>25</v>
+      <c r="H2" s="8"/>
+      <c r="I2" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="15">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="13">
         <v>43475.0</v>
       </c>
       <c r="G3" s="6">
         <v>2009.0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="G4" s="6">
         <v>2009.0</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="19" t="s">
-        <v>39</v>
+      <c r="H4" s="8"/>
+      <c r="I4" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
+      <c r="A5" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G5" s="6">
         <v>2005.0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>58</v>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="6">
         <v>2005.0</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>68</v>
+      <c r="H6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="6">
         <v>70.0</v>
@@ -1164,16 +1164,16 @@
         <v>3.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G7" s="6">
         <v>2004.0</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>79</v>
+      <c r="H7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1209,113 +1209,113 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="17">
+      <c r="D4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="18">
         <v>43720.0</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="18">
         <v>43658.0</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>59</v>
+      <c r="A6" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="17">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="18">
         <v>43567.0</v>
       </c>
       <c r="F6" s="12"/>
@@ -1323,18 +1323,18 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="19">
         <v>43810.0</v>
       </c>
       <c r="F7" s="12"/>
@@ -1347,13 +1347,13 @@
       <c r="B8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="19">
         <v>43780.0</v>
       </c>
       <c r="F8" s="12"/>
@@ -1406,133 +1406,133 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
+      <c r="A3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="17">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="18">
         <v>43510.0</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
+      <c r="A4" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="18">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="19">
         <v>43782.0</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>51</v>
+      <c r="A5" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="17">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="18">
         <v>43721.0</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>61</v>
+      <c r="A6" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="17">
+        <v>73</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="18">
         <v>43690.0</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>70</v>
+      <c r="A7" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="17">
+        <v>77</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="18">
         <v>43659.0</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>80</v>
+      <c r="A8" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="17">
+      <c r="C8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="18">
         <v>43568.0</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1572,13 +1572,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>91</v>
@@ -1599,13 +1599,13 @@
         <v>96</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1615,13 +1615,13 @@
       <c r="B2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="26"/>
@@ -1641,13 +1641,13 @@
       <c r="B3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="28"/>
@@ -1665,13 +1665,13 @@
       <c r="B4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="28"/>
@@ -1689,13 +1689,13 @@
       <c r="B5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="28"/>
@@ -1716,10 +1716,10 @@
       <c r="C6" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F6" s="28"/>
@@ -1740,10 +1740,10 @@
       <c r="C7" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="28"/>
@@ -1764,10 +1764,10 @@
       <c r="C8" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F8" s="12"/>
@@ -1785,11 +1785,11 @@
       <c r="B9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>63</v>
+      <c r="D9" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="12"/>
@@ -1809,14 +1809,14 @@
       <c r="B10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="30"/>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G10" s="12"/>
@@ -1837,10 +1837,10 @@
         <v>135</v>
       </c>
       <c r="D11" s="32"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>137</v>
       </c>
       <c r="H11" s="12"/>

--- a/data-raw/works.xlsx
+++ b/data-raw/works.xlsx
@@ -16,75 +16,75 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="145">
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>Authors</t>
   </si>
   <si>
-    <t>title</t>
+    <t>description</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>url_short</t>
+  </si>
+  <si>
     <t>Publication</t>
   </si>
   <si>
-    <t>description</t>
+    <t>started</t>
   </si>
   <si>
     <t>Volume</t>
   </si>
   <si>
-    <t>url</t>
+    <t>last_updated</t>
   </si>
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>url_short</t>
+    <t>finished</t>
   </si>
   <si>
     <t>Pages</t>
   </si>
   <si>
-    <t>started</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
-    <t>last_updated</t>
+    <t>Completing KF-SPLS with Ryser</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>finished</t>
-  </si>
-  <si>
     <t>On Polytopes and Lattice-Point Enumeration</t>
   </si>
   <si>
-    <t>Completing KF-SPLS with Ryser</t>
+    <t>Demonstration of completing KF-SPLS using the ryser Python package.</t>
   </si>
   <si>
     <t xml:space="preserve">Davis, Sean; Henderson, Matthew; Smith, Andrew; </t>
   </si>
   <si>
-    <t>An [IPython][ipython] notebook demonstrating some ideas about completing KF-SPLS using the [Ryser][ryserhome] package for partial latin square completion.</t>
+    <t>Modeling Sudoku Puzzles with Python</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
+  </si>
+  <si>
+    <t>Proceedings of the 9th Python in Science Conference</t>
   </si>
   <si>
     <t>Notes on Ehrhart Theory, including examples in Polymake.</t>
   </si>
   <si>
-    <t>Modeling Sudoku Puzzles with Python</t>
-  </si>
-  <si>
-    <t>Proceedings of the 9th Python in Science Conference</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857903</t>
-  </si>
-  <si>
     <t>https://gitlab.com/MHenderson1/notes/blob/master/14_03_09_ehrhart.pdf</t>
   </si>
   <si>
@@ -103,46 +103,67 @@
     <t>International Conference on Software Reuse</t>
   </si>
   <si>
+    <t>On the Completability of Wing-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Completable, bound, untethered KF-SPLS of even order are characterised.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
+  </si>
+  <si>
+    <t>An Introduction to NetworkX</t>
+  </si>
+  <si>
+    <t>Demonstration of NetworkX for graph and network analysis in Python.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
+  </si>
+  <si>
     <t>Springer</t>
   </si>
   <si>
     <t>https://doi.org/10.1007/978-3-642-04211-9_1</t>
   </si>
   <si>
-    <t>On the Completability of Wing-Form Partial Latin Squares</t>
-  </si>
-  <si>
-    <t>Completable, bound, untethered KF-SPLS of even order are characterised.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/13_06_28_wingform.pdf</t>
+    <t>http://bit.ly/2YIm0U8</t>
+  </si>
+  <si>
+    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
   </si>
   <si>
     <t>Collaborative Development of System Architecture-a Tool for Coping with Inconsistency.</t>
   </si>
   <si>
+    <t>Some ideas about the intricacy of completing partial latin squares.</t>
+  </si>
+  <si>
     <t>SEKE</t>
   </si>
   <si>
-    <t>An Introduction to NetworkX</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2YIm0U8</t>
+    <t>Computational and Numerical Methods</t>
+  </si>
+  <si>
+    <t>Using Octave for numerical methods.</t>
   </si>
   <si>
     <t>520-525</t>
   </si>
   <si>
-    <t>An IPython notebook demonstrating the use of the NetworkX package for graph and network analysis in Python</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5902080</t>
-  </si>
-  <si>
-    <t>Some Observations on the Intricacy of Partial Latin Square Completion</t>
-  </si>
-  <si>
-    <t>Some ideas about the intricacy of completing partial latin squares.</t>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2snV3sH</t>
+  </si>
+  <si>
+    <t>Processing GPS Data in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks.</t>
   </si>
   <si>
     <t xml:space="preserve">Henderson, Matthew; Shawe-Taylor, John; Žerovnik, Janez; </t>
@@ -154,31 +175,52 @@
     <t>International Conference on Algorithmic Learning Theory</t>
   </si>
   <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_09_15_intricacy.pdf</t>
-  </si>
-  <si>
     <t>386-398</t>
   </si>
   <si>
+    <t>On the Completability of Kite-Form Partial Latin Squares</t>
+  </si>
+  <si>
+    <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1007/11564089_30</t>
   </si>
   <si>
+    <t>Modelling Sudoku Puzzles in Python</t>
+  </si>
+  <si>
+    <t>An updated version of @davis_modeling_2010.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2rIHjJ6</t>
+  </si>
+  <si>
+    <t>Speech Annotation in Python Using Regular Expressions</t>
+  </si>
+  <si>
+    <t>Some basic ideas about annotating a corpus of novels using regular expressions.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/6052936</t>
+  </si>
+  <si>
     <t xml:space="preserve">Henderson, Matthew James; </t>
   </si>
   <si>
     <t>Embedding symmetric latin squares and edge-coloured graphs</t>
   </si>
   <si>
-    <t>Computational and Numerical Methods</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2snV3sH</t>
-  </si>
-  <si>
-    <t>An IPython notebook demonstrating the use of Octave for numerical methods.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6279740</t>
+    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
+  </si>
+  <si>
+    <t>Describing the discovery of a PSSSODLS of order 9.</t>
   </si>
   <si>
     <t>University of Reading</t>
@@ -187,7 +229,16 @@
     <t>https://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.485356</t>
   </si>
   <si>
-    <t>On the Completability of Kite-Form Partial Latin Squares</t>
+    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
+  </si>
+  <si>
+    <t>List-colouring in Python with Vizing</t>
+  </si>
+  <si>
+    <t>Introducing list-colouring of graphs using the the vizing Python package.</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
   </si>
   <si>
     <t xml:space="preserve">Henderson, MJ; Hilton, AJW; </t>
@@ -196,13 +247,10 @@
     <t>Completing An Edge-Colouring of $ K_ {2m} $ with $ K_r $ and Independent Edges Precoloured</t>
   </si>
   <si>
-    <t>Characterising the completable bound, untethered KF-SPLS of even order.</t>
-  </si>
-  <si>
     <t>Journal of the London Mathematical Society</t>
   </si>
   <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_06_20_kiteform.pdf</t>
+    <t>http://bit.ly/2PKgsEq</t>
   </si>
   <si>
     <t>545-566</t>
@@ -214,61 +262,13 @@
     <t>https://doi.org/10.1112/s0024610704005526</t>
   </si>
   <si>
-    <t>Processing GPS Data in Python</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2rIHjJ6</t>
-  </si>
-  <si>
-    <t>An [IPython][ipython] notebook presenting a statistical investigation, based on GPS data, into anomalous driving patterns among a fleet of delivery trucks</t>
-  </si>
-  <si>
-    <t>On Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
-  </si>
-  <si>
-    <t>Describing the discovery of a PSSSODLS of order 9.</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/MHenderson1/notes/blob/master/12_04_16_psssodls.pdf</t>
-  </si>
-  <si>
-    <t>Modelling Sudoku Puzzles in Python</t>
-  </si>
-  <si>
-    <t>An updated version of {% cite davis7modeling –file mh2 %} as an IPython notebook.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6416294</t>
-  </si>
-  <si>
-    <t>http://bit.ly/2PKgsEq</t>
-  </si>
-  <si>
-    <t>Speech Annotation in Python Using Regular Expressions</t>
-  </si>
-  <si>
-    <t>An IPython notebook which illustrates some basic ideas about annotating a corpus of novels using regular expressions.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/6052936</t>
-  </si>
-  <si>
     <t>Constraint Modelling of Pandiagonal Strongly-Symmetric Self-Orthogonal Diagonal Latin Squares</t>
   </si>
   <si>
     <t>Using Essence', Savile Row and Minion to model PSSSODLS.</t>
   </si>
   <si>
-    <t>List-colouring in Python with Vizing</t>
-  </si>
-  <si>
     <t>https://gitlab.com/MHenderson1/notes/blob/master/11_12_08_constraint_psssodls.pdf</t>
-  </si>
-  <si>
-    <t>An IPython notebook introducing list-colouring of graphs using the [Vizing][vizinghome] package.</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/gist/MHenderson/5857920</t>
   </si>
   <si>
     <t>http://bit.ly/2skFkut</t>
@@ -478,11 +478,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <b/>
     </font>
     <font/>
     <font>
@@ -536,24 +536,24 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -562,68 +562,68 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -688,12 +688,12 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="notes-style">
+    <tableStyle count="3" pivot="0" name="notebooks-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="notebooks-style">
+    <tableStyle count="3" pivot="0" name="notes-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -741,7 +741,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G8" displayName="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G8" displayName="Table_3" id="3">
   <tableColumns count="7">
     <tableColumn name="title" id="1"/>
     <tableColumn name="description" id="2"/>
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F8" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F8" displayName="Table_2" id="2">
   <tableColumns count="6">
     <tableColumn name="title" id="1"/>
     <tableColumn name="description" id="2"/>
@@ -1001,41 +1001,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="6">
@@ -1049,89 +1049,89 @@
         <v>2010.0</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <v>43475.0</v>
       </c>
       <c r="G3" s="6">
         <v>2009.0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>30</v>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G4" s="6">
         <v>2009.0</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="16" t="s">
-        <v>30</v>
+      <c r="I4" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
+      <c r="A5" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6">
         <v>2005.0</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>48</v>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
@@ -1140,22 +1140,22 @@
       <c r="G6" s="6">
         <v>2005.0</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>56</v>
+      <c r="H6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>61</v>
+      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="6">
         <v>70.0</v>
@@ -1164,16 +1164,16 @@
         <v>3.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G7" s="6">
         <v>2004.0</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>65</v>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1209,136 +1209,136 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
+      <c r="A2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="16">
         <v>43720.0</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>57</v>
+      <c r="A5" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="16">
+        <v>43658.0</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="18">
-        <v>43658.0</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="B6" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="D6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="16">
         <v>43567.0</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>43810.0</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
@@ -1350,14 +1350,14 @@
       <c r="C8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>43780.0</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="24"/>
@@ -1406,133 +1406,133 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
+      <c r="A3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="18">
+        <v>34</v>
+      </c>
+      <c r="D3" s="16">
         <v>43510.0</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
+      <c r="A4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="19">
+        <v>45</v>
+      </c>
+      <c r="D4" s="18">
         <v>43782.0</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>66</v>
+      <c r="A5" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="18">
+        <v>45</v>
+      </c>
+      <c r="D5" s="16">
         <v>43721.0</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16">
+        <v>43690.0</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="16">
+        <v>43659.0</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="18">
-        <v>43690.0</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="18">
-        <v>43659.0</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>43568.0</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1572,13 +1572,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>91</v>
@@ -1599,13 +1599,13 @@
         <v>96</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -1615,13 +1615,13 @@
       <c r="B2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="26"/>
@@ -1641,13 +1641,13 @@
       <c r="B3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="28"/>
@@ -1665,13 +1665,13 @@
       <c r="B4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="28"/>
@@ -1689,13 +1689,13 @@
       <c r="B5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="28"/>
@@ -1716,10 +1716,10 @@
       <c r="C6" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>118</v>
       </c>
       <c r="F6" s="28"/>
@@ -1740,10 +1740,10 @@
       <c r="C7" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="28"/>
@@ -1764,19 +1764,19 @@
       <c r="C8" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -1785,22 +1785,22 @@
       <c r="B9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>74</v>
+      <c r="D9" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="30"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
@@ -1812,19 +1812,19 @@
       <c r="C10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="30"/>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
@@ -1837,17 +1837,17 @@
         <v>135</v>
       </c>
       <c r="D11" s="32"/>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
